--- a/app/static/opinions/39562616.xlsx
+++ b/app/static/opinions/39562616.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="535">
   <si>
     <t>opinion_id</t>
   </si>
@@ -82,6 +82,372 @@
     <t>3836682</t>
   </si>
   <si>
+    <t>3421811</t>
+  </si>
+  <si>
+    <t>3982361</t>
+  </si>
+  <si>
+    <t>8486982</t>
+  </si>
+  <si>
+    <t>3334116</t>
+  </si>
+  <si>
+    <t>3665226</t>
+  </si>
+  <si>
+    <t>3802566</t>
+  </si>
+  <si>
+    <t>3771522</t>
+  </si>
+  <si>
+    <t>4150190</t>
+  </si>
+  <si>
+    <t>4034143</t>
+  </si>
+  <si>
+    <t>3735102</t>
+  </si>
+  <si>
+    <t>3330673</t>
+  </si>
+  <si>
+    <t>3688463</t>
+  </si>
+  <si>
+    <t>3315223</t>
+  </si>
+  <si>
+    <t>3480187</t>
+  </si>
+  <si>
+    <t>6275279</t>
+  </si>
+  <si>
+    <t>4003926</t>
+  </si>
+  <si>
+    <t>3694882</t>
+  </si>
+  <si>
+    <t>4506974</t>
+  </si>
+  <si>
+    <t>3809255</t>
+  </si>
+  <si>
+    <t>3945464</t>
+  </si>
+  <si>
+    <t>3920337</t>
+  </si>
+  <si>
+    <t>4148150</t>
+  </si>
+  <si>
+    <t>3572891</t>
+  </si>
+  <si>
+    <t>3745544</t>
+  </si>
+  <si>
+    <t>5130808</t>
+  </si>
+  <si>
+    <t>3691624</t>
+  </si>
+  <si>
+    <t>3634909</t>
+  </si>
+  <si>
+    <t>3336762</t>
+  </si>
+  <si>
+    <t>4560305</t>
+  </si>
+  <si>
+    <t>3430797</t>
+  </si>
+  <si>
+    <t>3362748</t>
+  </si>
+  <si>
+    <t>3539450</t>
+  </si>
+  <si>
+    <t>3735610</t>
+  </si>
+  <si>
+    <t>3453049</t>
+  </si>
+  <si>
+    <t>3567617</t>
+  </si>
+  <si>
+    <t>5108502</t>
+  </si>
+  <si>
+    <t>3579401</t>
+  </si>
+  <si>
+    <t>3473655</t>
+  </si>
+  <si>
+    <t>3515886</t>
+  </si>
+  <si>
+    <t>3567598</t>
+  </si>
+  <si>
+    <t>3723896</t>
+  </si>
+  <si>
+    <t>6565069</t>
+  </si>
+  <si>
+    <t>3539255</t>
+  </si>
+  <si>
+    <t>3357096</t>
+  </si>
+  <si>
+    <t>3937689</t>
+  </si>
+  <si>
+    <t>3793563</t>
+  </si>
+  <si>
+    <t>4039110</t>
+  </si>
+  <si>
+    <t>3843363</t>
+  </si>
+  <si>
+    <t>8054759</t>
+  </si>
+  <si>
+    <t>5080419</t>
+  </si>
+  <si>
+    <t>3884558</t>
+  </si>
+  <si>
+    <t>3881944</t>
+  </si>
+  <si>
+    <t>3576803</t>
+  </si>
+  <si>
+    <t>3996099</t>
+  </si>
+  <si>
+    <t>3690613</t>
+  </si>
+  <si>
+    <t>4003928</t>
+  </si>
+  <si>
+    <t>3800701</t>
+  </si>
+  <si>
+    <t>5018265</t>
+  </si>
+  <si>
+    <t>6236023</t>
+  </si>
+  <si>
+    <t>4310372</t>
+  </si>
+  <si>
+    <t>4038454</t>
+  </si>
+  <si>
+    <t>4871924</t>
+  </si>
+  <si>
+    <t>3419095</t>
+  </si>
+  <si>
+    <t>3793362</t>
+  </si>
+  <si>
+    <t>12167808</t>
+  </si>
+  <si>
+    <t>3690615</t>
+  </si>
+  <si>
+    <t>3520485</t>
+  </si>
+  <si>
+    <t>4666354</t>
+  </si>
+  <si>
+    <t>4485407</t>
+  </si>
+  <si>
+    <t>3628573</t>
+  </si>
+  <si>
+    <t>3512343</t>
+  </si>
+  <si>
+    <t>8096959</t>
+  </si>
+  <si>
+    <t>4817152</t>
+  </si>
+  <si>
+    <t>3606414</t>
+  </si>
+  <si>
+    <t>3523201</t>
+  </si>
+  <si>
+    <t>4585183</t>
+  </si>
+  <si>
+    <t>4212573</t>
+  </si>
+  <si>
+    <t>6685532</t>
+  </si>
+  <si>
+    <t>7996412</t>
+  </si>
+  <si>
+    <t>3575177</t>
+  </si>
+  <si>
+    <t>6645166</t>
+  </si>
+  <si>
+    <t>6645154</t>
+  </si>
+  <si>
+    <t>3567631</t>
+  </si>
+  <si>
+    <t>3319394</t>
+  </si>
+  <si>
+    <t>3463034</t>
+  </si>
+  <si>
+    <t>4962256</t>
+  </si>
+  <si>
+    <t>3372211</t>
+  </si>
+  <si>
+    <t>3498168</t>
+  </si>
+  <si>
+    <t>3485855</t>
+  </si>
+  <si>
+    <t>3599873</t>
+  </si>
+  <si>
+    <t>3636804</t>
+  </si>
+  <si>
+    <t>5134297</t>
+  </si>
+  <si>
+    <t>4233749</t>
+  </si>
+  <si>
+    <t>4233119</t>
+  </si>
+  <si>
+    <t>4234011</t>
+  </si>
+  <si>
+    <t>3469546</t>
+  </si>
+  <si>
+    <t>8273869</t>
+  </si>
+  <si>
+    <t>8096954</t>
+  </si>
+  <si>
+    <t>6578632</t>
+  </si>
+  <si>
+    <t>3493452</t>
+  </si>
+  <si>
+    <t>4851042</t>
+  </si>
+  <si>
+    <t>4678242</t>
+  </si>
+  <si>
+    <t>4666337</t>
+  </si>
+  <si>
+    <t>4597713</t>
+  </si>
+  <si>
+    <t>4472191</t>
+  </si>
+  <si>
+    <t>4280017</t>
+  </si>
+  <si>
+    <t>4234770</t>
+  </si>
+  <si>
+    <t>4097980</t>
+  </si>
+  <si>
+    <t>3779877</t>
+  </si>
+  <si>
+    <t>3683287</t>
+  </si>
+  <si>
+    <t>3655644</t>
+  </si>
+  <si>
+    <t>3626390</t>
+  </si>
+  <si>
+    <t>3619679</t>
+  </si>
+  <si>
+    <t>3585567</t>
+  </si>
+  <si>
+    <t>3520493</t>
+  </si>
+  <si>
+    <t>3520481</t>
+  </si>
+  <si>
+    <t>3510796</t>
+  </si>
+  <si>
+    <t>3502307</t>
+  </si>
+  <si>
+    <t>3455136</t>
+  </si>
+  <si>
+    <t>3442558</t>
+  </si>
+  <si>
+    <t>3430751</t>
+  </si>
+  <si>
+    <t>3430195</t>
+  </si>
+  <si>
     <t>Użytkownik Ceneo</t>
   </si>
   <si>
@@ -109,9 +475,126 @@
     <t>Maestro</t>
   </si>
   <si>
+    <t>Tomek</t>
+  </si>
+  <si>
+    <t>Ewa</t>
+  </si>
+  <si>
+    <t>Waldek</t>
+  </si>
+  <si>
+    <t>Łukasz</t>
+  </si>
+  <si>
+    <t>Biały</t>
+  </si>
+  <si>
+    <t>Ania</t>
+  </si>
+  <si>
+    <t>Mariusz</t>
+  </si>
+  <si>
+    <t>madebyme2212</t>
+  </si>
+  <si>
+    <t>Norbert</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>mmyy66</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Stanisław</t>
+  </si>
+  <si>
+    <t>Wonski</t>
+  </si>
+  <si>
+    <t>sernik</t>
+  </si>
+  <si>
+    <t>An...</t>
+  </si>
+  <si>
+    <t>bartek</t>
+  </si>
+  <si>
+    <t>Rysio</t>
+  </si>
+  <si>
+    <t>Elżbieta</t>
+  </si>
+  <si>
+    <t>Dawjd</t>
+  </si>
+  <si>
+    <t>Krzysztof</t>
+  </si>
+  <si>
+    <t>PawelDudzic</t>
+  </si>
+  <si>
+    <t>jolwia</t>
+  </si>
+  <si>
+    <t>daroha</t>
+  </si>
+  <si>
+    <t>Endriu</t>
+  </si>
+  <si>
+    <t>RiK</t>
+  </si>
+  <si>
+    <t>Waldi</t>
+  </si>
+  <si>
+    <t>Daro</t>
+  </si>
+  <si>
+    <t>Maciej</t>
+  </si>
+  <si>
+    <t>Aneta</t>
+  </si>
+  <si>
+    <t>Wojcio</t>
+  </si>
+  <si>
+    <t>M...a</t>
+  </si>
+  <si>
+    <t>Kupujący</t>
+  </si>
+  <si>
+    <t>Sobol2018</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>nitusss</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Ula</t>
+  </si>
+  <si>
     <t>Polecam</t>
   </si>
   <si>
+    <t>Nie polecam</t>
+  </si>
+  <si>
     <t>5/5</t>
   </si>
   <si>
@@ -121,6 +604,24 @@
     <t>4/5</t>
   </si>
   <si>
+    <t>3,5/5</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>0,5/5</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1,5/5</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
     <t>Transakcja pochodzi z Marketplace Ceneo (usługi Kup Teraz).</t>
   </si>
   <si>
@@ -154,6 +655,372 @@
     <t>2016-07-21 18:17:58</t>
   </si>
   <si>
+    <t>2015-11-17 11:12:51</t>
+  </si>
+  <si>
+    <t>2016-09-25 21:51:28</t>
+  </si>
+  <si>
+    <t>2018-10-26 19:53:04</t>
+  </si>
+  <si>
+    <t>2015-09-22 14:17:51</t>
+  </si>
+  <si>
+    <t>2016-03-30 01:39:48</t>
+  </si>
+  <si>
+    <t>2016-06-30 11:14:46</t>
+  </si>
+  <si>
+    <t>2016-06-04 17:38:30</t>
+  </si>
+  <si>
+    <t>2016-11-04 15:43:21</t>
+  </si>
+  <si>
+    <t>2016-10-11 11:33:40</t>
+  </si>
+  <si>
+    <t>2016-05-09 11:23:23</t>
+  </si>
+  <si>
+    <t>2015-09-20 08:13:53</t>
+  </si>
+  <si>
+    <t>2016-04-11 14:47:16</t>
+  </si>
+  <si>
+    <t>2015-09-10 12:22:23</t>
+  </si>
+  <si>
+    <t>2015-12-17 08:51:17</t>
+  </si>
+  <si>
+    <t>2017-11-30 15:07:56</t>
+  </si>
+  <si>
+    <t>2016-10-03 17:10:08</t>
+  </si>
+  <si>
+    <t>2016-04-15 08:50:41</t>
+  </si>
+  <si>
+    <t>2017-03-20 20:59:47</t>
+  </si>
+  <si>
+    <t>2016-07-04 15:11:17</t>
+  </si>
+  <si>
+    <t>2016-09-13 19:42:56</t>
+  </si>
+  <si>
+    <t>2016-09-03 10:13:23</t>
+  </si>
+  <si>
+    <t>2016-11-03 20:04:49</t>
+  </si>
+  <si>
+    <t>2016-02-08 14:46:12</t>
+  </si>
+  <si>
+    <t>2016-05-15 20:48:30</t>
+  </si>
+  <si>
+    <t>2017-10-16 14:58:58</t>
+  </si>
+  <si>
+    <t>2016-04-13 12:14:49</t>
+  </si>
+  <si>
+    <t>2016-03-10 12:55:27</t>
+  </si>
+  <si>
+    <t>2015-09-24 09:37:52</t>
+  </si>
+  <si>
+    <t>2017-04-11 08:55:39</t>
+  </si>
+  <si>
+    <t>2015-11-21 14:42:41</t>
+  </si>
+  <si>
+    <t>2015-10-12 11:09:33</t>
+  </si>
+  <si>
+    <t>2016-01-19 10:07:59</t>
+  </si>
+  <si>
+    <t>2016-05-09 17:26:56</t>
+  </si>
+  <si>
+    <t>2015-12-03 18:27:33</t>
+  </si>
+  <si>
+    <t>2016-02-04 20:03:10</t>
+  </si>
+  <si>
+    <t>2017-10-08 13:45:01</t>
+  </si>
+  <si>
+    <t>2016-02-11 18:00:38</t>
+  </si>
+  <si>
+    <t>2015-12-14 15:10:12</t>
+  </si>
+  <si>
+    <t>2016-01-05 21:18:58</t>
+  </si>
+  <si>
+    <t>2016-02-04 19:55:18</t>
+  </si>
+  <si>
+    <t>2016-05-01 19:09:45</t>
+  </si>
+  <si>
+    <t>2018-02-07 13:27:09</t>
+  </si>
+  <si>
+    <t>2016-01-19 08:40:18</t>
+  </si>
+  <si>
+    <t>2015-10-07 22:48:42</t>
+  </si>
+  <si>
+    <t>2016-09-10 07:20:54</t>
+  </si>
+  <si>
+    <t>2016-06-21 17:27:24</t>
+  </si>
+  <si>
+    <t>2016-10-12 10:25:09</t>
+  </si>
+  <si>
+    <t>2016-07-25 22:38:01</t>
+  </si>
+  <si>
+    <t>2018-06-16 12:56:54</t>
+  </si>
+  <si>
+    <t>2017-09-28 08:23:58</t>
+  </si>
+  <si>
+    <t>2016-08-16 19:33:40</t>
+  </si>
+  <si>
+    <t>2016-08-14 14:18:31</t>
+  </si>
+  <si>
+    <t>2016-02-10 13:49:10</t>
+  </si>
+  <si>
+    <t>2016-09-30 07:04:15</t>
+  </si>
+  <si>
+    <t>2016-04-12 19:09:01</t>
+  </si>
+  <si>
+    <t>2016-10-03 17:10:48</t>
+  </si>
+  <si>
+    <t>2016-06-28 16:16:55</t>
+  </si>
+  <si>
+    <t>2017-09-07 15:53:09</t>
+  </si>
+  <si>
+    <t>2017-11-21 18:02:15</t>
+  </si>
+  <si>
+    <t>2016-12-27 00:02:01</t>
+  </si>
+  <si>
+    <t>2016-10-12 08:28:23</t>
+  </si>
+  <si>
+    <t>2017-07-21 11:14:45</t>
+  </si>
+  <si>
+    <t>2015-11-15 20:04:27</t>
+  </si>
+  <si>
+    <t>2016-06-21 13:49:15</t>
+  </si>
+  <si>
+    <t>2020-04-16 18:18:16</t>
+  </si>
+  <si>
+    <t>2016-04-12 19:10:45</t>
+  </si>
+  <si>
+    <t>2016-01-07 23:14:35</t>
+  </si>
+  <si>
+    <t>2017-05-15 17:51:47</t>
+  </si>
+  <si>
+    <t>2017-03-10 14:39:44</t>
+  </si>
+  <si>
+    <t>2016-03-07 10:08:04</t>
+  </si>
+  <si>
+    <t>2016-01-04 12:56:12</t>
+  </si>
+  <si>
+    <t>2018-07-01 12:19:56</t>
+  </si>
+  <si>
+    <t>2017-07-04 16:57:25</t>
+  </si>
+  <si>
+    <t>2016-02-26 16:46:06</t>
+  </si>
+  <si>
+    <t>2016-01-09 17:31:21</t>
+  </si>
+  <si>
+    <t>2017-04-19 18:36:07</t>
+  </si>
+  <si>
+    <t>2016-11-18 17:35:04</t>
+  </si>
+  <si>
+    <t>2018-03-07 22:30:59</t>
+  </si>
+  <si>
+    <t>2018-05-28 10:20:11</t>
+  </si>
+  <si>
+    <t>2016-02-09 18:07:52</t>
+  </si>
+  <si>
+    <t>2018-02-26 20:33:25</t>
+  </si>
+  <si>
+    <t>2018-02-26 20:31:44</t>
+  </si>
+  <si>
+    <t>2016-02-04 20:11:03</t>
+  </si>
+  <si>
+    <t>2015-09-13 09:08:16</t>
+  </si>
+  <si>
+    <t>2015-12-09 08:22:49</t>
+  </si>
+  <si>
+    <t>2017-08-21 11:31:45</t>
+  </si>
+  <si>
+    <t>2015-10-18 16:07:05</t>
+  </si>
+  <si>
+    <t>2015-12-28 12:14:47</t>
+  </si>
+  <si>
+    <t>2015-12-19 22:01:53</t>
+  </si>
+  <si>
+    <t>2016-02-23 14:06:35</t>
+  </si>
+  <si>
+    <t>2016-03-11 13:51:25</t>
+  </si>
+  <si>
+    <t>2017-10-17 17:48:36</t>
+  </si>
+  <si>
+    <t>2016-11-25 16:11:52</t>
+  </si>
+  <si>
+    <t>2016-11-25 11:02:46</t>
+  </si>
+  <si>
+    <t>2016-11-25 18:07:58</t>
+  </si>
+  <si>
+    <t>2015-12-11 17:37:42</t>
+  </si>
+  <si>
+    <t>2018-08-22 20:58:34</t>
+  </si>
+  <si>
+    <t>2018-07-01 12:10:17</t>
+  </si>
+  <si>
+    <t>2018-02-11 13:22:33</t>
+  </si>
+  <si>
+    <t>2015-12-24 21:02:47</t>
+  </si>
+  <si>
+    <t>2017-07-14 13:08:11</t>
+  </si>
+  <si>
+    <t>2017-05-18 18:56:55</t>
+  </si>
+  <si>
+    <t>2017-05-15 17:47:02</t>
+  </si>
+  <si>
+    <t>2017-04-23 22:00:06</t>
+  </si>
+  <si>
+    <t>2017-03-04 16:01:35</t>
+  </si>
+  <si>
+    <t>2016-12-12 10:58:22</t>
+  </si>
+  <si>
+    <t>2016-11-25 23:07:01</t>
+  </si>
+  <si>
+    <t>2016-10-24 20:49:28</t>
+  </si>
+  <si>
+    <t>2016-06-11 14:18:12</t>
+  </si>
+  <si>
+    <t>2016-04-08 18:39:58</t>
+  </si>
+  <si>
+    <t>2016-03-23 22:04:12</t>
+  </si>
+  <si>
+    <t>2016-03-06 12:39:39</t>
+  </si>
+  <si>
+    <t>2016-03-03 17:35:13</t>
+  </si>
+  <si>
+    <t>2016-02-16 08:50:38</t>
+  </si>
+  <si>
+    <t>2016-01-07 23:15:21</t>
+  </si>
+  <si>
+    <t>2016-01-07 23:09:18</t>
+  </si>
+  <si>
+    <t>2016-01-03 19:11:33</t>
+  </si>
+  <si>
+    <t>2015-12-29 18:45:09</t>
+  </si>
+  <si>
+    <t>2015-12-04 22:52:58</t>
+  </si>
+  <si>
+    <t>2015-11-27 13:16:18</t>
+  </si>
+  <si>
+    <t>2015-11-21 13:41:11</t>
+  </si>
+  <si>
+    <t>2015-11-21 01:09:18</t>
+  </si>
+  <si>
     <t>2015-12-27 14:12:05</t>
   </si>
   <si>
@@ -169,6 +1036,120 @@
     <t>2016-07-06 14:55:27</t>
   </si>
   <si>
+    <t>2016-09-12 16:53:59</t>
+  </si>
+  <si>
+    <t>2015-09-13 00:28:05</t>
+  </si>
+  <si>
+    <t>2016-06-26 18:40:16</t>
+  </si>
+  <si>
+    <t>2016-10-25 21:28:30</t>
+  </si>
+  <si>
+    <t>2016-09-28 14:46:46</t>
+  </si>
+  <si>
+    <t>2016-05-01 16:01:26</t>
+  </si>
+  <si>
+    <t>2016-03-30 22:05:22</t>
+  </si>
+  <si>
+    <t>2016-09-22 09:44:14</t>
+  </si>
+  <si>
+    <t>2016-04-09 09:16:26</t>
+  </si>
+  <si>
+    <t>2017-03-08 22:49:08</t>
+  </si>
+  <si>
+    <t>2016-06-28 15:38:06</t>
+  </si>
+  <si>
+    <t>2016-09-03 22:46:38</t>
+  </si>
+  <si>
+    <t>2016-10-22 23:19:04</t>
+  </si>
+  <si>
+    <t>2016-01-15 15:43:51</t>
+  </si>
+  <si>
+    <t>2016-04-25 10:01:20</t>
+  </si>
+  <si>
+    <t>2016-03-30 21:14:57</t>
+  </si>
+  <si>
+    <t>2016-02-19 12:40:22</t>
+  </si>
+  <si>
+    <t>2015-09-16 12:10:22</t>
+  </si>
+  <si>
+    <t>2015-11-16 16:03:56</t>
+  </si>
+  <si>
+    <t>2015-12-23 09:20:14</t>
+  </si>
+  <si>
+    <t>2016-01-08 16:55:24</t>
+  </si>
+  <si>
+    <t>2016-02-06 16:32:14</t>
+  </si>
+  <si>
+    <t>2016-01-13 16:45:20</t>
+  </si>
+  <si>
+    <t>2016-04-11 16:30:59</t>
+  </si>
+  <si>
+    <t>2016-08-30 09:16:53</t>
+  </si>
+  <si>
+    <t>2016-06-09 18:55:33</t>
+  </si>
+  <si>
+    <t>2016-09-23 09:30:38</t>
+  </si>
+  <si>
+    <t>2016-07-17 15:32:35</t>
+  </si>
+  <si>
+    <t>2016-07-18 23:14:44</t>
+  </si>
+  <si>
+    <t>2016-09-19 09:44:52</t>
+  </si>
+  <si>
+    <t>2016-04-06 23:00:10</t>
+  </si>
+  <si>
+    <t>2016-09-30 14:52:36</t>
+  </si>
+  <si>
+    <t>2020-04-05 10:39:49</t>
+  </si>
+  <si>
+    <t>2016-02-16 11:04:25</t>
+  </si>
+  <si>
+    <t>2016-01-27 16:55:50</t>
+  </si>
+  <si>
+    <t>2015-11-18 10:11:05</t>
+  </si>
+  <si>
+    <t>2017-07-09 00:36:16</t>
+  </si>
+  <si>
+    <t>2017-05-08 22:20:07</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
@@ -196,19 +1177,58 @@
     <t>7</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>5</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>UWAGA, UWAGA do wszystkich zgłaszających problem z jakością rozmów głosowych: niestety, spotkał mnie ten sam problem, telefon dostałem od jednego z głównych operatorów telefonii komorkówej w PL. zainteresowałem się tematem w internecie, głównie na anglojęzycznych forach, nikt praktycznie nie zgłaszał podobnych perpetii, a i tutaj, na ceneo, można było natknąć się na przeczące sobie opinie. Załóżyłem w związku z tym, że być może winny jest brandowany soft. Tak postawioną tezę postanowiłem sprawdzić empirycznie i wziałem się za wgranie czystego oprogramowania prosto od samsunga. Efekt? BINGO! jakość rozmów żyleta, tak więc zapraszam do lektury for androidowych jak sobie poradzić z debrandowaniem telefonu z androidem (generalnie bułka z masłem). pozdrawiam serdecznie! 5 gwiazdek, bo telefon sam w sobie nie jest niczemu winny. Za to programisci i testerzy naszych rodzimych operatorow juz tak:)</t>
@@ -245,6 +1265,306 @@
     <t>Poręczny estetyczny wygląd! Brak papierowej instrukcji co przy pierwszym użyciu produktu jest trudne w związku z wyborem języka i prawidłowej instalacji telefonu! Natomiast cała reszta jest ok!</t>
   </si>
   <si>
+    <t>Szukałem jego poprzednika, ale już go nie sprowadzają do sklepów (dziwna logika). Ale do rzeczy, przed kupnem naczytałem się recenzji i opinii i obawiałem się złej jakości rozmów - nic bardziej mylnego. Żona ma S5 i stwierdzamy, że jakość rozmów jest taka sama. Przesiadłem się z S3 mini więc wiadomo dużo szybszy i wydajniejszy. Bateria trzyma długo, nawet 4 dni (wyłączone dane komórkowe i mało używany) z LTE wczoraj przez 6h zjadło 40%. Brakuje mi tej podczerwieni (aplikacja pilot z programem telewizyjnym jest genialna). Prócz tego nie ma się czego przyczepić, sprzęt z górnej półki. Polecam.</t>
+  </si>
+  <si>
+    <t>Przepiękny wizualnie, mam go niedługo ale póki co wszystko działa w 100% bez najmniejszego przycinania się, mimo dużej ilości aplikacji.</t>
+  </si>
+  <si>
+    <t>Super telefon. Uzytkuje go od 3 lat.  Ani razu sie  nie zaciol. Ani razu nie zwolnil i nie zamulil. Wszystko wnim dziala jak nalezy. Zakupiony w sieci T-mobile. Dokupilem do niego orginalna obudowe neo hybrid spigena  co  nadalo telefonikowi indywidualny charakter.  I przez ten caly czas noszenia go w kieszeni nie starl sie lakier z ramki - niesamowite. Lepszego telefonu nie mialem.   Jedynu minus to polityka samsunga ktora przy aktualizacjach czyms musi "postarzyc" telefon.  bateria faktycznie trzyma jeden dzien ale to przeciez samsung :)  i nigdy lepiej nie bylo. Na plus moge zaliczyc ze nie zauwazylem starzenia sie baterii. Po takim okresie uzywania nadal zachowuje moc gdyby byla nowa.</t>
+  </si>
+  <si>
+    <t>Szukałem wydajnego smartfona do wszystkiego, za rozsądną cenę, z wymienną baterią i wejściem na kartę pamięci. Mój wybór to S5 Neo. Chyba się nie rozczaruję? Pozdrawiam!</t>
+  </si>
+  <si>
+    <t>Smartfona używam od 5 miesięcy. Optymalny rozmiar, bardzo dobry wyświetlacz, niezły czas pracy na baterii (wytrzymuje mi spokojnie od rana do wieczora przy intensywnym użytkowaniu), dobra jakość dźwięku (z zastrzeżeniem, że do zestawu dołączone są najbardziej prymitywne "pchełki", które warto czym prędzej wymienić na coś lepszego), jakość rozmów głosowych po aktualizacji oprogramowania bez zastrzeżeń (jedna z wcześniejszych aktualizacji była wadliwa i uniemożliwiła normalne prowadzenie rozmów) zapewniona aktualizacja Androida do wersji 6.0, płynność interfejsu dobra (przewijanie menu trochę klatkuje i nie jest to)</t>
+  </si>
+  <si>
+    <t>Produkt chodzi płynnie nie zawiesza się aplikacje ładują się szybko. Parę bajerów umila życie np. pulsometr oraz wodo- i pyło- odporność</t>
+  </si>
+  <si>
+    <t>Telefon z serii: fajny był jak był nowy. Niestety zawiodłam się bardzo na tym modelu w dłuższej perspektywie ponieważ ma problemy z łapaniem ostrości na zdjęciach, z tym że się często zacina i tym, robi czasem dziwne rzeczy takie jak odblokowuje się lub chce się wyłączyć z niewiadomych przyczyn. Fajny telefon ale nie jako odmiana flagowca, od tego poziomu (ceny) telefonu dużo więcej się wymaga. Kupiłam samsunga za namową znajomych i jako następny telefon na pewno samsunga nie wybiorę (albo wrócę do Sony, albo przejdę na iPhone)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S5 Neo który zakupiłem kilka dni temu sprawuje się bardzo dobrze, jest szybki, menu przejrzyste i estetyczne. Polecam.</t>
+  </si>
+  <si>
+    <t>Jestem z niego bardzo zadowolona. Bateria trzyma 2 dni, zdjęcia ładne. Menu proste. Mogę z czystym sumieniem polecić ten model.</t>
+  </si>
+  <si>
+    <t>Pierwsze wrażenie pozytywne. Czas pokaże czy takie odczucie zostanie na stałe.</t>
+  </si>
+  <si>
+    <t>ekonomiczna ewolucja wersji s5... generalnie udany telefon w dobrej cenie. na plus nieco lepszy aparat, ale nieznacznie. brak pilota na podczerwień. Chodzi płynnie nie czuć braku mocy w normalnym użytkowaniu. Pod tym kątem prawie jak S6. Słabsze podzespoły ujawniają się dopiero przy grach. Oczywiście nie stanowią problemu. Jeśli ktoś ma jednak możliwość, niech wybierze lepiej "stary" S5.  Będzie to korzystniejsze. Menu w S5 o wiele bardziej bogate a działa równie dobrze. W całej sprawie ważna jest także polityka samsunga. .. który telefon dostanie   aktualizacje do androida M ???
+Gdybym miał jeszcze raz wybierać to chyba jednak S5... ale nie żałuję, S5 neo jest równie Dobry!</t>
+  </si>
+  <si>
+    <t>Duży ekran, telefon w trybie oszczędzania energii trzyma 2-3 dni co wydaje mi się dobrym wynikiem.</t>
+  </si>
+  <si>
+    <t>Wszystko ładnie pięknie tak jak na flagowca przystało (płynność systemu i super amoled) + dobrze działające radio FM, rzec by można super urządzenie. Niestety telefon (być może tylko mój egzemplarz) posiada fatalną jakość połączeń głosowych. Moi rozmówcy skarżą się, że bardzo słabo mnie słychać (jakby coś przysłaniało mikrofon, może wada mikrofonu) ja za to słyszałem ich głos wyraźnie ale chropowato. W porównaniu z moim starym galaxy core jakość rozmów jest fatalna. Nie wiem czy nie jest to spowodowane tym, że telefon jest wodoodporny, ale jeżeli tak to niestety bardzo na tym traci jakość fonii.</t>
+  </si>
+  <si>
+    <t>DO WSZYSTKICH MAJĄCYCH PROBLEM Z FATALNĄ JAKOŚCIĄ ROZMÓW!!!_x000D_
+Problem leży po stronie operatora i dotyczy tylko PLAY! Wystarczy WYŁĄCZYĆ TRANSMISJĘ DANYCH i jakość diametralnie się zmienia!_x000D_
+Jest to wina PLAYa, który nic z tym nie robi i dotyczy to najnowszych softów Samsunga. Najwidoczniej szanowny operator nie nadąża za najnowszymi aktualizacjami Samsaunga i całkowicie olewa klientów!!!!!</t>
+  </si>
+  <si>
+    <t>Gdyby ktoś jeszcze raz zaproponował mi ten telefon, nie zdecydowałabym się na niego. _x000D_
+Telefon już po pół roku użytkowania zaczął się zacinać, samoistne wyłączać lub po prostu ekran stawał się cały czarny (ani włączyć, ani wyłączyć), 2 x usunął mi całą muzykę oraz zdjęcia z telefonu._x000D_
+Po przywróceniu ustawień fabrycznych  stan się poprawiał na kilka dni, a później znów to samo. Zaletą jest,że telefon jest nie do pobicia. Po całym dniu zacinania, zdarzyło mi się nim rzucić o ścianę, a mimo wszystko telefon jest cały i nie ma na nim ani jednej rysy . (nie naklejałam szkła hartowanego). Zdarza się nim zrobić naprawdę profesjonalne zdjęcia (światło dzienne) jak "załapie". I ostatni pozytyw to bateria, która przy "siedzeniu" cały dzień na telefonie ( o ile pół dnia się nie zacina), spokojnie wytrzymuje do późnego wieczora.</t>
+  </si>
+  <si>
+    <t>Jak na razie sprawuje się rewelacyjnie</t>
+  </si>
+  <si>
+    <t>Tak, jak w opisie danych technicznych</t>
+  </si>
+  <si>
+    <t>Zajefajny telefonik za rozsądną cenę.</t>
+  </si>
+  <si>
+    <t>Co prawda jest to już starszy model, ale w zupełności spełnia moje oczekiwania. Nie przepadam za telefonami szklanymi i metalowymi, więc plastikowy tył telefonu oceniam jako plus. Bateria jak na parametry telefonu mogła by być trochę pojemniejsza, ale za to szybko się ładuje. Jasny ekran, pełny kolorów ekran (o ekranie można w zasadzie pisać w samych superlatywach).</t>
+  </si>
+  <si>
+    <t>Spoko tel.</t>
+  </si>
+  <si>
+    <t>Nie słyszę problemów z jakością połączeń głosowych a słuch mam dobry. Przyznam, że wogóle telefony jak na ich cenę i zaawansowanie techniczne całej infrastruktury telefonicznej prezentują marną jakość rozmów. Dźwięk w telefonie jest lepszy od mojego poprzedniego telefonu, swoją drogą topowego, Sony Ericsson W995 więc nie mam zastrzeżeń. Poza tym za tą cenę telefon jest na prawdę dobry pod każdym względem. Najbardziej miło zaskoczył mnie aparat przedni.</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>OKI !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!1</t>
+  </si>
+  <si>
+    <t>dobre</t>
+  </si>
+  <si>
+    <t>Użytkuję już od trzech lat. Nie znajduję wad. Ale - tak jak każdy smartphone- absolutnie musi mieć etui. Kupiłem jedno z tych pancernych. Telefon nie tylko pewniej leży w dłoni, ale także nie będę dzięki niemu zamierał, ilekroć wyleci z dłoni. Tylko tak się składa, że - choć pancerne etui ochrania telefon już od ładnych paru miesięcy - do jakichkolwiek upadków nie dochodzi - zasługa ochronnej obudowy, telefon nie jest już śliski.</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>bardzo dobry</t>
+  </si>
+  <si>
+    <t>Mam ten aparat od 1,5 roku. W zasadzie jako telefon działa bez zarzutu, lecz aparat robi niestety nieostre filmy. O ile zdjęcia są zadowalającej ostrości to filmy niestety nie.  Był 2 razy w serwisie gdzie wymieniono to co nie było powodem usterki, stwierdzili, że jest wszystko OK, a niestety nie jest.  Nie mam już sił dalej udowadniać z tą ostrością, Mam zamiar zmienić go na inną markę. "Wyleczyłem " się z samsunga.!!!!!</t>
+  </si>
+  <si>
+    <t>Godny polecenia !!!</t>
+  </si>
+  <si>
+    <t>Niestety w moim egzemplarzu jakość dzwięku w słuchawce też jest fatalna - głos jakby "z tunelu". Szczególnie jest to denerwujące bo w wiele straszym galaxy s 2 dzwięk był doskonały. W końcu telefon służy głównie do rozmów i wszystkie pozostałe zalety bledną przy tej wadzie. Ponadto co jakis czas pojawia się komunikat o niedomknietej tylnej obudowie. Czy może ktoś sobie z tym poradził bez oddawania do serwisu?</t>
+  </si>
+  <si>
+    <t>ok!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>1. Niezawodny._x000D_
+2. Szybki._x000D_
+3. Maksimum możliwości, jakich nie ma iphone._x000D_
+4. Wspaniały obraz._x000D_
+5. Dobry dźwięk._x000D_
+6. Wodoodporny - myślałem, że to zbędna zaleta, byłem w błędzie._x000D_
+7. Szalenie wydajna antena wifi._x000D_
+8. Radio (S6 na przykład nie ma!)._x000D_
+9. Długa praca na jednym ładowaniu._x000D_
+Minusy? Tylna klapka nieco trzeszczy. Szczęśliwie z czasem owy dźwięk zanika.</t>
+  </si>
+  <si>
+    <t>Zdecydowalem sie zakupic ten telefon w play. Jest naprawde.swietny. Tylko jedna podstawowa wada: rozmowcy mnie nie slysza!!! I nie tylko jeden rozmowca,ale praktycznie kazdy z kim rozmawiam...Mysle,ze po prostu wadliwe aparaty trafily do play i sa sprzedawane w promocyjnych cenach za zlotowke... Jesli producent zobliguje sie do poprawy jakosci rozmow telefon ma 5 gwiazdek u mnie☺☺☺</t>
+  </si>
+  <si>
+    <t>super telefon</t>
+  </si>
+  <si>
+    <t>Mialem ten telefon od 2lat i mogę napisać że jest bardzo dobry.  Super aparat,  piękny ekran superamoled. Ale bateria mizerna…  ledwo starcza na caly dzien w 3g i do godziny rozmów. Nie zacina się nigdy ale nie jest demonem szybkości…  no i ta cena…  jest o 1000zl za drogi jak na dzisiejsze czasy.  Lepiej wybrać jakiegoś chińczyka o lepszej jakosci</t>
+  </si>
+  <si>
+    <t>Moze być</t>
+  </si>
+  <si>
+    <t>Telefon sam w sobie jest super ale jest jedna podstawowa sprawa która przekreśla go całkowicie. Jakosć rozmów. Rozmoę słychać tak jak by człowiek siedział w jakiejś beczce i w dodatku występuja zakłócenia. Telefon kupiłem trzy tygodnie temu w Saturnie. Szkoda było tylko wydanych 1500zł dlatego przestrzegam innych. Pozostałem funkcje bez zarzutu ale jak ktos już tutaj napisał wszystko blednie przy kiepskich rozmowach a do tego w zasadzie telefon służy.</t>
+  </si>
+  <si>
+    <t>oki !!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Dla mnie ważne: obsługuje usb OTG - DAC Ifi iDSD nano, bateria przy normalnym użytkowaniu 2-3 doby.</t>
+  </si>
+  <si>
+    <t>Cały czas używam telefonów Samsung i jest to najlepszy model tej firmy.Za niewielkie {stosunkowo}pieniądze mam telefon który przewyższa wszystkie aparaty seri A i S6 iS7.Naprawdę polecam super telefon.</t>
+  </si>
+  <si>
+    <t>Okrojona wersja starej s 5 ale .... okrojenie  zrobione z głową/brak biometów, niedziałającego czytnika linii papilarnych  etc./ w mojej ocenie telefon wart uwagi, dobry aparat , bateria 2 - 3 dni, generalnie jak dla mnie super.</t>
+  </si>
+  <si>
+    <t>Ogólnie telefon bardzo fajny...ale... ja również potwierdzam, że jakoś połączenia(głośnik) jest "jak z akwarium" - tragedia; mój poprzedni Samsung Galaxy Core to przy tym najwyższy model kina domowego!</t>
+  </si>
+  <si>
+    <t>Ogólnie wszystko ok, ale jak dla mnie jest za cichy.</t>
+  </si>
+  <si>
+    <t>Idealnie chodzi jest wszystko to co powinien zawierać ten telefon. Odświeżony S5 i jestem zadowolony.</t>
+  </si>
+  <si>
+    <t>Telefon funkcjonalny, intuicyjne menu, fajne zdjęcia, dobrze leży w dłoni_x000D_
+Ogólnie bez zastrzeżeń</t>
+  </si>
+  <si>
+    <t>telefon bardzo fajny przyjemnie się go trzyma w dłoni  ma bardzo fajny wyświetlacz aparat robi zacne zdjęcia moja ocena to 4,5 na 5</t>
+  </si>
+  <si>
+    <t>Telefon mam od 3 lat . Działa jak mażenie . Przerzył wiele wypadków i działa jak nowy . Jak naj bardziej polecam ten telefon .</t>
+  </si>
+  <si>
+    <t>Opinia po roku użytkowania. Na początku super, bateria trzymała cały dzień zabawy. Potem przez częste ładowanie bateria trzymała pare h. Po zakupie nowej oryginalnej znowu bez rewelacji. Nie wiem z czego to wynika. Przy uzywaniu od 7 rano o 15 już mam 15% a staram się wyłączać wszystko w tle i mam przyciemniony ekran. Czasami potrafi masakrycznie przycinać, ostatnio jeszcze bardziej. Nawet nie włączam trybu oszczędzania baterii bo wtedy lewo działa. Wyczyściłem telefon do 0 i bez rewelacji. Za to aparat na wielki plus</t>
+  </si>
+  <si>
+    <t>super sprzęt</t>
+  </si>
+  <si>
+    <t>Telefon O.K.</t>
+  </si>
+  <si>
+    <t>Witam! Czy problem z szumami podczas rozmowy został rozwiązany nową aktualizacją? Chcę zakupić ten telefon, ale z tego co czytam to spory problem. Pozdrawiam</t>
+  </si>
+  <si>
+    <t>Super telefon. Spełnia w pełni moje oczekiwania. Polecam</t>
+  </si>
+  <si>
+    <t>Telefon godny polecenia. Odpowiednia jakość za odpowiednie pieniądze. Jest super</t>
+  </si>
+  <si>
+    <t>świetnie sprawdza się w każdej sytuacji, dobry wyświetlacz i bateria, menu łatwe i ładne</t>
+  </si>
+  <si>
+    <t>Produkt bardzo dobry, jedyny minus to krótko trzymająca bateria. Zdjęcia fajne :)</t>
+  </si>
+  <si>
+    <t>Wspaniały talefon z wspaniałym aparatem plus bardzo dobre słuchawki dokanałowe</t>
+  </si>
+  <si>
+    <t>To jest mój  4 samsung coraz gorsze robi smartfonay. Tym razem odpadl mi lakier z ramki oczywiście nie upadł. Dzwoniłem do serwisu samsunga olał sprawę twierdząc że to moja wina. Uważajcie na ramki z których odpada lakier samoistnie.</t>
+  </si>
+  <si>
+    <t>Telefon spełnia oczekiwania.</t>
+  </si>
+  <si>
+    <t>W swoim życiu już kilka miałam i mogę szczerze powiedzieć, że jest to jeden z najlepszych. Mogę go z czystym sercem polecić.</t>
+  </si>
+  <si>
+    <t>Wydajność, aparat, dźwięk idealne</t>
+  </si>
+  <si>
+    <t>Procesor bardzo szybki, używam go od pół roku i ani razu się nie zaciął. Obsługuje wszystko i kilka apek na raz</t>
+  </si>
+  <si>
+    <t>Super telefon. Pełna satysfakcja. Polecam ten model</t>
+  </si>
+  <si>
+    <t>Dobry, funkcjonalny telefon.</t>
+  </si>
+  <si>
+    <t>Rewelacyjny ekran piękne kolory nowoczesny wygląd i świetne parametry w rozsądnej cenie polecam</t>
+  </si>
+  <si>
+    <t>Witam Produkt B. dobry ale nie wart usługi Orange, traci na wartości nie spełnia się w tej sieci</t>
+  </si>
+  <si>
+    <t>Produkt godny polecenia</t>
+  </si>
+  <si>
+    <t>Jestem zadowolony po okresie jednego miesiąca użytkownikowania polecam 
+Jurek</t>
+  </si>
+  <si>
+    <t>Myślę że w tej kwocie pieniężnej nie znajdziecie Państwo nic fajniejszego._x000D_
+Polecam</t>
+  </si>
+  <si>
+    <t>Używam od roku wszytko śmiga jak najlepiej. Poważny minus to bateria tak to POLECAM</t>
+  </si>
+  <si>
+    <t>Super telenonik z fajnymi podzespołami.Zero zacięć,bardzo szybki. każdemu polecam.</t>
+  </si>
+  <si>
+    <t>Najwyższej jakości produkt,naprawdę świetna jakość obrazu i dźwięku.Warty polecenia.</t>
+  </si>
+  <si>
+    <t>Godny polecenia!!!!:)</t>
+  </si>
+  <si>
+    <t>Telefon pierwsza klasa. Teraz trzeba sie przerzucić na galaxy s7 edge</t>
+  </si>
+  <si>
+    <t>Super telefon!</t>
+  </si>
+  <si>
+    <t>Polecam mam 4 lata i działa bez zarzutów</t>
+  </si>
+  <si>
+    <t>Nie polecam. Niby telefon dobry ale bardzo szybko się grzeje przez co bateria robi się coraz słabsza i trzeba kupić nową. Telefon wyglądem nie powala a parametry ma takie same co inne telefony z tańszej półki.</t>
+  </si>
+  <si>
+    <t>to jest super polecam.</t>
+  </si>
+  <si>
+    <t>telefon godny polecenia</t>
+  </si>
+  <si>
+    <t>Bardzo dobry telefon i akcesoria do telefonu firmy Samsung 
+polecam ten telefon dobry do pracy i nie tylko</t>
+  </si>
+  <si>
+    <t>Polecam!!!</t>
+  </si>
+  <si>
+    <t>Telefon ze świetnym aparatem i płynnością działania. Niestety obudowa jest mało wytrzymała. Miałam problem, jak większość znajomych, z głośnikiem - dopiero po aktualizacji słysząłam dobrze rozmówców. Bateria standardowo trzyma ok 1,5 dnia przy używaniu internetu i kilkunastu minutach grania w gry dziennie.</t>
+  </si>
+  <si>
+    <t>Zamiast s5 neo polecam sg j5. Koszt  750 zł a w użytkowaniu  prawie jak S5 neo. Brakuje mu co prawda paru rzeczy ale jakość połączeń  jest  super. Bateria trzyma 3 dni.</t>
+  </si>
+  <si>
+    <t>Telefon jest do wszystkiego tylko nie do dzwonienia. Jakość rozmów faaatalna.</t>
+  </si>
+  <si>
+    <t>tragiczna jakość rozmów, oddany do serwisu po raz kolejny, za każdym razem to samo.</t>
+  </si>
+  <si>
+    <t>Telefon z dużym czytelnym i czułym ekranem. Szybkość działania systemu dobra. Dużo pamięci. Tu się zalety kończą. Słaba bateria, zamotany system z dużą ilością wad. Niepotrzebna nakładka samsunga. Może to kwestia przyzwyczajenie ale wolałem poprzedniego androida.</t>
+  </si>
+  <si>
+    <t>Uzywam s 5 neo od okolo miesiaca tel moge polecic ladnie smiga nic sie nie wiesza jakosc polaczen dobra</t>
+  </si>
+  <si>
+    <t>Jeden z lepszych telefonow jakie wyszly na nasz rynek.</t>
+  </si>
+  <si>
+    <t>Funkcjonalny i prosty w obsłudze. Bateria wytrzymuje dość długi czas.</t>
+  </si>
+  <si>
+    <t>łądny z wyglądu, funkcjonalny, wytrzymały, jestem bardzo zadowolona</t>
+  </si>
+  <si>
+    <t>Ogólnie jest to bardzo dobry sprzęt jak na swoją półkę</t>
+  </si>
+  <si>
+    <t>ja tesz polecam</t>
+  </si>
+  <si>
+    <t>5,0/5</t>
+  </si>
+  <si>
+    <t>Zawiodłem sie</t>
+  </si>
+  <si>
+    <t>4,0/5</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -260,10 +1580,67 @@
     <t>['bateria dwa dni trzyma przy dość intensy']</t>
   </si>
   <si>
+    <t>['funkcjonalność', 'wygląd']</t>
+  </si>
+  <si>
+    <t>['czas pracy na baterii', 'ekran nie do zbicia', 'łatwość obsługi', 'wygląd']</t>
+  </si>
+  <si>
+    <t>['funkcjonalność', 'wododporność']</t>
+  </si>
+  <si>
+    <t>['czas pracy na baterii', 'wygląd']</t>
+  </si>
+  <si>
+    <t>['bateria lądująca w godzine 100%', 'czas pracy na baterii', 'wododporność']</t>
+  </si>
+  <si>
+    <t>['bateria lądująca w godzine 100%', 'czas pracy na baterii', 'ekran nie do zbicia', 'funkcjonalność', 'łatwość obsługi', 'po pół roku użytkowania się zawiesza', 'przycisk home - trzeba mocno naciskać', 'wady oprogramowania', 'wygląd', 'wyświetlacza:  design:  żywotność']</t>
+  </si>
+  <si>
+    <t>['funkcjonalność', 'łatwość obsługi', 'wygląd']</t>
+  </si>
+  <si>
+    <t>['bateria lądująca w godzine 100%', 'czas pracy na baterii', 'łatwość obsługi', 'wododporność', 'wygląd', 'wyświetlacza:  design:  żywotność']</t>
+  </si>
+  <si>
+    <t>['wododporność']</t>
+  </si>
+  <si>
+    <t>['bateria lądująca w godzine 100%', 'łatwość obsługi', 'wygląd']</t>
+  </si>
+  <si>
+    <t>['bateria dwa dni trzyma przy dość intensy', 'bateria lądująca w godzine 100%', 'czas pracy na baterii', 'łatwość obsługi', 'wady oprogramowania', 'wododporność', 'wygląd', 'wyświetlacza:  design:  żywotność']</t>
+  </si>
+  <si>
     <t>['przycisk home - trzeba mocno naciskać']</t>
   </si>
   <si>
     <t>['bateria lądująca w godzine 100%', 'czas pracy na baterii', 'słaba jakość dźwięku z głośniczka', 'wady oprogramowania', 'wododporność']</t>
+  </si>
+  <si>
+    <t>['po pół roku użytkowania się zawiesza']</t>
+  </si>
+  <si>
+    <t>['słaba jakość dźwięku z głośniczka']</t>
+  </si>
+  <si>
+    <t>['bateria lądująca w godzine 100%', 'funkcjonalność', 'nie daje rady z wieloma aplikacjami', 'sam nie raz się wyłączył', 'zacina się']</t>
+  </si>
+  <si>
+    <t>['potrafi zamulac', 'wododporność']</t>
+  </si>
+  <si>
+    <t>['czas pracy na baterii']</t>
+  </si>
+  <si>
+    <t>['brak mhl', 'możliwości podłączenia do tv', 'potrafi zamulac', 'przycisk home - trzeba mocno naciskać']</t>
+  </si>
+  <si>
+    <t>['funkcjonalność', 'wady oprogramowania']</t>
+  </si>
+  <si>
+    <t>['potrafi zamulac', 'słaba jakość dźwięku z głośniczka']</t>
   </si>
 </sst>
 </file>
@@ -621,7 +1998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,31 +2050,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>405</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -708,37 +2085,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>406</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -749,31 +2126,31 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>407</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -784,37 +2161,37 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>336</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>408</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>511</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -825,31 +2202,31 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>382</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>394</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>409</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -860,37 +2237,37 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>410</v>
       </c>
       <c r="L7" t="s">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -901,31 +2278,31 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>384</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>411</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -936,37 +2313,37 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>393</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>412</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -977,31 +2354,31 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>390</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>413</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1012,37 +2389,4517 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J11" t="s">
+        <v>380</v>
+      </c>
+      <c r="K11" t="s">
+        <v>414</v>
+      </c>
+      <c r="L11" t="s">
+        <v>509</v>
+      </c>
+      <c r="M11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" t="s">
+        <v>387</v>
+      </c>
+      <c r="J12" t="s">
+        <v>383</v>
+      </c>
+      <c r="K12" t="s">
+        <v>415</v>
+      </c>
+      <c r="L12" t="s">
+        <v>509</v>
+      </c>
+      <c r="M12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" t="s">
+        <v>380</v>
+      </c>
+      <c r="J13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L13" t="s">
+        <v>512</v>
+      </c>
+      <c r="M13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J14" t="s">
+        <v>380</v>
+      </c>
+      <c r="K14" t="s">
+        <v>417</v>
+      </c>
+      <c r="L14" t="s">
+        <v>514</v>
+      </c>
+      <c r="M14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" t="s">
+        <v>379</v>
+      </c>
+      <c r="J15" t="s">
+        <v>395</v>
+      </c>
+      <c r="K15" t="s">
+        <v>418</v>
+      </c>
+      <c r="L15" t="s">
+        <v>509</v>
+      </c>
+      <c r="M15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" t="s">
+        <v>388</v>
+      </c>
+      <c r="J16" t="s">
+        <v>380</v>
+      </c>
+      <c r="K16" t="s">
+        <v>419</v>
+      </c>
+      <c r="L16" t="s">
+        <v>509</v>
+      </c>
+      <c r="M16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" t="s">
+        <v>342</v>
+      </c>
+      <c r="I17" t="s">
+        <v>380</v>
+      </c>
+      <c r="J17" t="s">
+        <v>380</v>
+      </c>
+      <c r="K17" t="s">
+        <v>420</v>
+      </c>
+      <c r="L17" t="s">
+        <v>509</v>
+      </c>
+      <c r="M17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" t="s">
+        <v>379</v>
+      </c>
+      <c r="J18" t="s">
+        <v>380</v>
+      </c>
+      <c r="K18" t="s">
+        <v>421</v>
+      </c>
+      <c r="L18" t="s">
+        <v>512</v>
+      </c>
+      <c r="M18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" t="s">
+        <v>220</v>
+      </c>
+      <c r="H19" t="s">
+        <v>343</v>
+      </c>
+      <c r="I19" t="s">
+        <v>380</v>
+      </c>
+      <c r="J19" t="s">
+        <v>380</v>
+      </c>
+      <c r="K19" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" t="s">
+        <v>509</v>
+      </c>
+      <c r="M19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" t="s">
+        <v>380</v>
+      </c>
+      <c r="J20" t="s">
+        <v>380</v>
+      </c>
+      <c r="K20" t="s">
+        <v>423</v>
+      </c>
+      <c r="L20" t="s">
+        <v>509</v>
+      </c>
+      <c r="M20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" t="s">
+        <v>345</v>
+      </c>
+      <c r="I21" t="s">
+        <v>380</v>
+      </c>
+      <c r="J21" t="s">
+        <v>380</v>
+      </c>
+      <c r="K21" t="s">
+        <v>424</v>
+      </c>
+      <c r="L21" t="s">
+        <v>512</v>
+      </c>
+      <c r="M21" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" t="s">
+        <v>388</v>
+      </c>
+      <c r="J22" t="s">
+        <v>388</v>
+      </c>
+      <c r="K22" t="s">
+        <v>425</v>
+      </c>
+      <c r="L22" t="s">
+        <v>509</v>
+      </c>
+      <c r="M22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" t="s">
+        <v>346</v>
+      </c>
+      <c r="I23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J23" t="s">
+        <v>390</v>
+      </c>
+      <c r="K23" t="s">
+        <v>426</v>
+      </c>
+      <c r="L23" t="s">
+        <v>509</v>
+      </c>
+      <c r="M23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" t="s">
+        <v>385</v>
+      </c>
+      <c r="J24" t="s">
+        <v>398</v>
+      </c>
+      <c r="K24" t="s">
+        <v>427</v>
+      </c>
+      <c r="L24" t="s">
+        <v>509</v>
+      </c>
+      <c r="M24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>226</v>
+      </c>
+      <c r="I25" t="s">
+        <v>389</v>
+      </c>
+      <c r="J25" t="s">
+        <v>390</v>
+      </c>
+      <c r="K25" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" t="s">
+        <v>509</v>
+      </c>
+      <c r="M25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" t="s">
+        <v>380</v>
+      </c>
+      <c r="J26" t="s">
+        <v>380</v>
+      </c>
+      <c r="K26" t="s">
+        <v>429</v>
+      </c>
+      <c r="L26" t="s">
+        <v>515</v>
+      </c>
+      <c r="M26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" t="s">
+        <v>347</v>
+      </c>
+      <c r="I27" t="s">
+        <v>380</v>
+      </c>
+      <c r="J27" t="s">
+        <v>380</v>
+      </c>
+      <c r="K27" t="s">
+        <v>430</v>
+      </c>
+      <c r="L27" t="s">
+        <v>509</v>
+      </c>
+      <c r="M27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" t="s">
+        <v>380</v>
+      </c>
+      <c r="J28" t="s">
+        <v>393</v>
+      </c>
+      <c r="K28" t="s">
+        <v>431</v>
+      </c>
+      <c r="L28" t="s">
+        <v>512</v>
+      </c>
+      <c r="M28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" t="s">
+        <v>349</v>
+      </c>
+      <c r="I29" t="s">
+        <v>380</v>
+      </c>
+      <c r="J29" t="s">
+        <v>380</v>
+      </c>
+      <c r="K29" t="s">
+        <v>432</v>
+      </c>
+      <c r="L29" t="s">
+        <v>509</v>
+      </c>
+      <c r="M29" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" t="s">
+        <v>350</v>
+      </c>
+      <c r="I30" t="s">
+        <v>380</v>
+      </c>
+      <c r="J30" t="s">
+        <v>380</v>
+      </c>
+      <c r="K30" t="s">
+        <v>433</v>
+      </c>
+      <c r="L30" t="s">
+        <v>512</v>
+      </c>
+      <c r="M30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" t="s">
+        <v>351</v>
+      </c>
+      <c r="I31" t="s">
+        <v>380</v>
+      </c>
+      <c r="J31" t="s">
+        <v>380</v>
+      </c>
+      <c r="K31" t="s">
+        <v>434</v>
+      </c>
+      <c r="L31" t="s">
+        <v>509</v>
+      </c>
+      <c r="M31" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I32" t="s">
+        <v>380</v>
+      </c>
+      <c r="J32" t="s">
+        <v>380</v>
+      </c>
+      <c r="K32" t="s">
+        <v>435</v>
+      </c>
+      <c r="L32" t="s">
+        <v>516</v>
+      </c>
+      <c r="M32" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" t="s">
+        <v>352</v>
+      </c>
+      <c r="I33" t="s">
+        <v>380</v>
+      </c>
+      <c r="J33" t="s">
+        <v>380</v>
+      </c>
+      <c r="K33" t="s">
+        <v>436</v>
+      </c>
+      <c r="L33" t="s">
+        <v>509</v>
+      </c>
+      <c r="M33" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" t="s">
+        <v>353</v>
+      </c>
+      <c r="I34" t="s">
+        <v>390</v>
+      </c>
+      <c r="J34" t="s">
+        <v>399</v>
+      </c>
+      <c r="K34" t="s">
+        <v>437</v>
+      </c>
+      <c r="L34" t="s">
+        <v>509</v>
+      </c>
+      <c r="M34" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35" t="s">
+        <v>383</v>
+      </c>
+      <c r="J35" t="s">
+        <v>379</v>
+      </c>
+      <c r="K35" t="s">
+        <v>438</v>
+      </c>
+      <c r="L35" t="s">
+        <v>509</v>
+      </c>
+      <c r="M35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" t="s">
+        <v>380</v>
+      </c>
+      <c r="J36" t="s">
+        <v>380</v>
+      </c>
+      <c r="K36" t="s">
+        <v>439</v>
+      </c>
+      <c r="L36" t="s">
+        <v>517</v>
+      </c>
+      <c r="M36" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" t="s">
+        <v>355</v>
+      </c>
+      <c r="I37" t="s">
+        <v>379</v>
+      </c>
+      <c r="J37" t="s">
+        <v>395</v>
+      </c>
+      <c r="K37" t="s">
+        <v>440</v>
+      </c>
+      <c r="L37" t="s">
+        <v>509</v>
+      </c>
+      <c r="M37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" t="s">
+        <v>383</v>
+      </c>
+      <c r="J38" t="s">
+        <v>395</v>
+      </c>
+      <c r="K38" t="s">
+        <v>440</v>
+      </c>
+      <c r="L38" t="s">
+        <v>509</v>
+      </c>
+      <c r="M38" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" t="s">
+        <v>357</v>
+      </c>
+      <c r="I39" t="s">
+        <v>379</v>
+      </c>
+      <c r="J39" t="s">
+        <v>392</v>
+      </c>
+      <c r="K39" t="s">
+        <v>441</v>
+      </c>
+      <c r="L39" t="s">
+        <v>509</v>
+      </c>
+      <c r="M39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" t="s">
+        <v>241</v>
+      </c>
+      <c r="I40" t="s">
+        <v>380</v>
+      </c>
+      <c r="J40" t="s">
+        <v>380</v>
+      </c>
+      <c r="K40" t="s">
+        <v>442</v>
+      </c>
+      <c r="L40" t="s">
+        <v>509</v>
+      </c>
+      <c r="M40" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H41" t="s">
+        <v>358</v>
+      </c>
+      <c r="I41" t="s">
+        <v>391</v>
+      </c>
+      <c r="J41" t="s">
+        <v>400</v>
+      </c>
+      <c r="K41" t="s">
+        <v>443</v>
+      </c>
+      <c r="L41" t="s">
+        <v>509</v>
+      </c>
+      <c r="M41" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" t="s">
+        <v>392</v>
+      </c>
+      <c r="J42" t="s">
+        <v>387</v>
+      </c>
+      <c r="K42" t="s">
+        <v>444</v>
+      </c>
+      <c r="L42" t="s">
+        <v>509</v>
+      </c>
+      <c r="M42" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="J11" t="s">
+      <c r="C43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" t="s">
+        <v>244</v>
+      </c>
+      <c r="H43" t="s">
+        <v>359</v>
+      </c>
+      <c r="I43" t="s">
+        <v>390</v>
+      </c>
+      <c r="J43" t="s">
+        <v>401</v>
+      </c>
+      <c r="K43" t="s">
+        <v>445</v>
+      </c>
+      <c r="L43" t="s">
+        <v>509</v>
+      </c>
+      <c r="M43" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" t="s">
+        <v>245</v>
+      </c>
+      <c r="I44" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>446</v>
+      </c>
+      <c r="L44" t="s">
+        <v>509</v>
+      </c>
+      <c r="M44" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" t="s">
+        <v>380</v>
+      </c>
+      <c r="J45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>447</v>
+      </c>
+      <c r="L45" t="s">
+        <v>509</v>
+      </c>
+      <c r="M45" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" t="s">
+        <v>360</v>
+      </c>
+      <c r="I46" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>448</v>
+      </c>
+      <c r="L46" t="s">
+        <v>509</v>
+      </c>
+      <c r="M46" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>449</v>
+      </c>
+      <c r="L47" t="s">
+        <v>509</v>
+      </c>
+      <c r="M47" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" t="s">
+        <v>361</v>
+      </c>
+      <c r="I48" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s">
+        <v>450</v>
+      </c>
+      <c r="L48" t="s">
+        <v>509</v>
+      </c>
+      <c r="M48" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" t="s">
+        <v>250</v>
+      </c>
+      <c r="I49" t="s">
+        <v>383</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>451</v>
+      </c>
+      <c r="L49" t="s">
+        <v>509</v>
+      </c>
+      <c r="M49" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" t="s">
+        <v>452</v>
+      </c>
+      <c r="L50" t="s">
+        <v>509</v>
+      </c>
+      <c r="M50" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" t="s">
+        <v>252</v>
+      </c>
+      <c r="H51" t="s">
+        <v>362</v>
+      </c>
+      <c r="I51" t="s">
+        <v>390</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>440</v>
+      </c>
+      <c r="L51" t="s">
+        <v>509</v>
+      </c>
+      <c r="M51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" t="s">
+        <v>253</v>
+      </c>
+      <c r="H52" t="s">
+        <v>363</v>
+      </c>
+      <c r="I52" t="s">
+        <v>385</v>
+      </c>
+      <c r="J52" t="s">
+        <v>390</v>
+      </c>
+      <c r="K52" t="s">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s">
+        <v>509</v>
+      </c>
+      <c r="M52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" t="s">
+        <v>254</v>
+      </c>
+      <c r="I53" t="s">
+        <v>380</v>
+      </c>
+      <c r="J53" t="s">
+        <v>380</v>
+      </c>
+      <c r="K53" t="s">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s">
+        <v>518</v>
+      </c>
+      <c r="M53" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" t="s">
+        <v>255</v>
+      </c>
+      <c r="I54" t="s">
+        <v>390</v>
+      </c>
+      <c r="J54" t="s">
+        <v>380</v>
+      </c>
+      <c r="K54" t="s">
+        <v>455</v>
+      </c>
+      <c r="L54" t="s">
+        <v>509</v>
+      </c>
+      <c r="M54" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="K11" t="s">
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" t="s">
+        <v>256</v>
+      </c>
+      <c r="I55" t="s">
+        <v>390</v>
+      </c>
+      <c r="J55" t="s">
+        <v>379</v>
+      </c>
+      <c r="K55" t="s">
+        <v>456</v>
+      </c>
+      <c r="L55" t="s">
+        <v>509</v>
+      </c>
+      <c r="M55" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" t="s">
+        <v>364</v>
+      </c>
+      <c r="I56" t="s">
+        <v>380</v>
+      </c>
+      <c r="J56" t="s">
+        <v>380</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>509</v>
+      </c>
+      <c r="M56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" t="s">
+        <v>258</v>
+      </c>
+      <c r="H57" t="s">
+        <v>365</v>
+      </c>
+      <c r="I57" t="s">
+        <v>380</v>
+      </c>
+      <c r="J57" t="s">
+        <v>380</v>
+      </c>
+      <c r="K57" t="s">
+        <v>458</v>
+      </c>
+      <c r="L57" t="s">
+        <v>509</v>
+      </c>
+      <c r="M57" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" t="s">
+        <v>259</v>
+      </c>
+      <c r="H58" t="s">
+        <v>366</v>
+      </c>
+      <c r="I58" t="s">
+        <v>380</v>
+      </c>
+      <c r="J58" t="s">
+        <v>380</v>
+      </c>
+      <c r="K58" t="s">
+        <v>459</v>
+      </c>
+      <c r="L58" t="s">
+        <v>509</v>
+      </c>
+      <c r="M58" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" t="s">
+        <v>260</v>
+      </c>
+      <c r="I59" t="s">
+        <v>380</v>
+      </c>
+      <c r="J59" t="s">
+        <v>380</v>
+      </c>
+      <c r="K59" t="s">
+        <v>460</v>
+      </c>
+      <c r="L59" t="s">
+        <v>512</v>
+      </c>
+      <c r="M59" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" t="s">
+        <v>380</v>
+      </c>
+      <c r="J60" t="s">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s">
+        <v>461</v>
+      </c>
+      <c r="L60" t="s">
+        <v>519</v>
+      </c>
+      <c r="M60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" t="s">
+        <v>262</v>
+      </c>
+      <c r="I61" t="s">
+        <v>380</v>
+      </c>
+      <c r="J61" t="s">
+        <v>380</v>
+      </c>
+      <c r="K61" t="s">
+        <v>462</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" t="s">
+        <v>263</v>
+      </c>
+      <c r="H62" t="s">
+        <v>367</v>
+      </c>
+      <c r="I62" t="s">
+        <v>380</v>
+      </c>
+      <c r="J62" t="s">
+        <v>380</v>
+      </c>
+      <c r="K62" t="s">
+        <v>463</v>
+      </c>
+      <c r="L62" t="s">
+        <v>512</v>
+      </c>
+      <c r="M62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" t="s">
+        <v>368</v>
+      </c>
+      <c r="I63" t="s">
+        <v>380</v>
+      </c>
+      <c r="J63" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s">
+        <v>512</v>
+      </c>
+      <c r="M63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" t="s">
+        <v>265</v>
+      </c>
+      <c r="I64" t="s">
+        <v>380</v>
+      </c>
+      <c r="J64" t="s">
+        <v>383</v>
+      </c>
+      <c r="K64" t="s">
+        <v>465</v>
+      </c>
+      <c r="L64" t="s">
+        <v>509</v>
+      </c>
+      <c r="M64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>75</v>
       </c>
-      <c r="M11" t="s">
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" t="s">
+        <v>369</v>
+      </c>
+      <c r="I65" t="s">
+        <v>380</v>
+      </c>
+      <c r="J65" t="s">
+        <v>380</v>
+      </c>
+      <c r="K65" t="s">
+        <v>466</v>
+      </c>
+      <c r="L65" t="s">
+        <v>509</v>
+      </c>
+      <c r="M65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" t="s">
+        <v>267</v>
+      </c>
+      <c r="H66" t="s">
+        <v>370</v>
+      </c>
+      <c r="I66" t="s">
+        <v>383</v>
+      </c>
+      <c r="J66" t="s">
+        <v>388</v>
+      </c>
+      <c r="K66" t="s">
+        <v>467</v>
+      </c>
+      <c r="L66" t="s">
+        <v>509</v>
+      </c>
+      <c r="M66" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" t="s">
+        <v>268</v>
+      </c>
+      <c r="H67" t="s">
+        <v>347</v>
+      </c>
+      <c r="I67" t="s">
+        <v>380</v>
+      </c>
+      <c r="J67" t="s">
+        <v>380</v>
+      </c>
+      <c r="K67" t="s">
+        <v>430</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G68" t="s">
+        <v>269</v>
+      </c>
+      <c r="I68" t="s">
+        <v>380</v>
+      </c>
+      <c r="J68" t="s">
+        <v>380</v>
+      </c>
+      <c r="K68" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68" t="s">
+        <v>512</v>
+      </c>
+      <c r="M68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" t="s">
+        <v>270</v>
+      </c>
+      <c r="I69" t="s">
+        <v>380</v>
+      </c>
+      <c r="J69" t="s">
+        <v>380</v>
+      </c>
+      <c r="K69" t="s">
+        <v>469</v>
+      </c>
+      <c r="L69" t="s">
+        <v>520</v>
+      </c>
+      <c r="M69" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" t="s">
+        <v>193</v>
+      </c>
+      <c r="G70" t="s">
+        <v>271</v>
+      </c>
+      <c r="I70" t="s">
+        <v>380</v>
+      </c>
+      <c r="J70" t="s">
+        <v>380</v>
+      </c>
+      <c r="K70" t="s">
+        <v>470</v>
+      </c>
+      <c r="L70" t="s">
+        <v>521</v>
+      </c>
+      <c r="M70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" t="s">
+        <v>198</v>
+      </c>
+      <c r="G71" t="s">
+        <v>272</v>
+      </c>
+      <c r="I71" t="s">
+        <v>380</v>
+      </c>
+      <c r="J71" t="s">
+        <v>380</v>
+      </c>
+      <c r="K71" t="s">
+        <v>471</v>
+      </c>
+      <c r="L71" t="s">
+        <v>509</v>
+      </c>
+      <c r="M71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" t="s">
+        <v>273</v>
+      </c>
+      <c r="H72" t="s">
+        <v>371</v>
+      </c>
+      <c r="I72" t="s">
+        <v>380</v>
+      </c>
+      <c r="J72" t="s">
+        <v>380</v>
+      </c>
+      <c r="K72" t="s">
+        <v>472</v>
+      </c>
+      <c r="L72" t="s">
+        <v>509</v>
+      </c>
+      <c r="M72" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" t="s">
+        <v>380</v>
+      </c>
+      <c r="J73" t="s">
+        <v>380</v>
+      </c>
+      <c r="K73" t="s">
+        <v>473</v>
+      </c>
+      <c r="L73" t="s">
+        <v>509</v>
+      </c>
+      <c r="M73" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" t="s">
+        <v>193</v>
+      </c>
+      <c r="G74" t="s">
+        <v>275</v>
+      </c>
+      <c r="I74" t="s">
+        <v>379</v>
+      </c>
+      <c r="J74" t="s">
+        <v>390</v>
+      </c>
+      <c r="K74" t="s">
+        <v>474</v>
+      </c>
+      <c r="L74" t="s">
+        <v>512</v>
+      </c>
+      <c r="M74" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" t="s">
+        <v>276</v>
+      </c>
+      <c r="I75" t="s">
+        <v>380</v>
+      </c>
+      <c r="J75" t="s">
+        <v>380</v>
+      </c>
+      <c r="K75" t="s">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s">
+        <v>509</v>
+      </c>
+      <c r="M75" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" t="s">
+        <v>193</v>
+      </c>
+      <c r="F76" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" t="s">
+        <v>277</v>
+      </c>
+      <c r="H76" t="s">
+        <v>372</v>
+      </c>
+      <c r="I76" t="s">
+        <v>380</v>
+      </c>
+      <c r="J76" t="s">
+        <v>380</v>
+      </c>
+      <c r="K76" t="s">
+        <v>436</v>
+      </c>
+      <c r="L76" t="s">
+        <v>509</v>
+      </c>
+      <c r="M76" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
         <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" t="s">
+        <v>278</v>
+      </c>
+      <c r="H77" t="s">
+        <v>370</v>
+      </c>
+      <c r="I77" t="s">
+        <v>390</v>
+      </c>
+      <c r="J77" t="s">
+        <v>386</v>
+      </c>
+      <c r="K77" t="s">
+        <v>476</v>
+      </c>
+      <c r="L77" t="s">
+        <v>509</v>
+      </c>
+      <c r="M77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78" t="s">
+        <v>279</v>
+      </c>
+      <c r="I78" t="s">
+        <v>390</v>
+      </c>
+      <c r="J78" t="s">
+        <v>380</v>
+      </c>
+      <c r="K78" t="s">
+        <v>477</v>
+      </c>
+      <c r="L78" t="s">
+        <v>522</v>
+      </c>
+      <c r="M78" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" t="s">
+        <v>280</v>
+      </c>
+      <c r="I79" t="s">
+        <v>380</v>
+      </c>
+      <c r="J79" t="s">
+        <v>380</v>
+      </c>
+      <c r="K79" t="s">
+        <v>478</v>
+      </c>
+      <c r="L79" t="s">
+        <v>509</v>
+      </c>
+      <c r="M79" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80" t="s">
+        <v>281</v>
+      </c>
+      <c r="I80" t="s">
+        <v>380</v>
+      </c>
+      <c r="J80" t="s">
+        <v>380</v>
+      </c>
+      <c r="K80" t="s">
+        <v>479</v>
+      </c>
+      <c r="L80" t="s">
+        <v>509</v>
+      </c>
+      <c r="M80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81" t="s">
+        <v>202</v>
+      </c>
+      <c r="G81" t="s">
+        <v>282</v>
+      </c>
+      <c r="H81" t="s">
+        <v>373</v>
+      </c>
+      <c r="I81" t="s">
+        <v>383</v>
+      </c>
+      <c r="J81" t="s">
+        <v>388</v>
+      </c>
+      <c r="K81" t="s">
+        <v>480</v>
+      </c>
+      <c r="L81" t="s">
+        <v>509</v>
+      </c>
+      <c r="M81" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>193</v>
+      </c>
+      <c r="G82" t="s">
+        <v>283</v>
+      </c>
+      <c r="I82" t="s">
+        <v>390</v>
+      </c>
+      <c r="J82" t="s">
+        <v>383</v>
+      </c>
+      <c r="K82" t="s">
+        <v>481</v>
+      </c>
+      <c r="L82" t="s">
+        <v>509</v>
+      </c>
+      <c r="M82" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" t="s">
+        <v>193</v>
+      </c>
+      <c r="G83" t="s">
+        <v>284</v>
+      </c>
+      <c r="I83" t="s">
+        <v>380</v>
+      </c>
+      <c r="J83" t="s">
+        <v>380</v>
+      </c>
+      <c r="K83" t="s">
+        <v>482</v>
+      </c>
+      <c r="L83" t="s">
+        <v>509</v>
+      </c>
+      <c r="M83" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" t="s">
+        <v>193</v>
+      </c>
+      <c r="G84" t="s">
+        <v>285</v>
+      </c>
+      <c r="I84" t="s">
+        <v>380</v>
+      </c>
+      <c r="J84" t="s">
+        <v>380</v>
+      </c>
+      <c r="K84" t="s">
+        <v>483</v>
+      </c>
+      <c r="L84" t="s">
+        <v>509</v>
+      </c>
+      <c r="M84" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" t="s">
+        <v>193</v>
+      </c>
+      <c r="G85" t="s">
+        <v>286</v>
+      </c>
+      <c r="I85" t="s">
+        <v>380</v>
+      </c>
+      <c r="J85" t="s">
+        <v>380</v>
+      </c>
+      <c r="K85" t="s">
+        <v>484</v>
+      </c>
+      <c r="L85" t="s">
+        <v>509</v>
+      </c>
+      <c r="M85" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86" t="s">
+        <v>287</v>
+      </c>
+      <c r="I86" t="s">
+        <v>380</v>
+      </c>
+      <c r="J86" t="s">
+        <v>383</v>
+      </c>
+      <c r="K86" t="s">
+        <v>485</v>
+      </c>
+      <c r="L86" t="s">
+        <v>509</v>
+      </c>
+      <c r="M86" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G87" t="s">
+        <v>288</v>
+      </c>
+      <c r="I87" t="s">
+        <v>380</v>
+      </c>
+      <c r="J87" t="s">
+        <v>380</v>
+      </c>
+      <c r="K87" t="s">
+        <v>486</v>
+      </c>
+      <c r="L87" t="s">
+        <v>512</v>
+      </c>
+      <c r="M87" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" t="s">
+        <v>193</v>
+      </c>
+      <c r="G88" t="s">
+        <v>289</v>
+      </c>
+      <c r="I88" t="s">
+        <v>380</v>
+      </c>
+      <c r="J88" t="s">
+        <v>380</v>
+      </c>
+      <c r="K88" t="s">
+        <v>487</v>
+      </c>
+      <c r="L88" t="s">
+        <v>509</v>
+      </c>
+      <c r="M88" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" t="s">
+        <v>290</v>
+      </c>
+      <c r="I89" t="s">
+        <v>380</v>
+      </c>
+      <c r="J89" t="s">
+        <v>380</v>
+      </c>
+      <c r="K89" t="s">
+        <v>488</v>
+      </c>
+      <c r="L89" t="s">
+        <v>523</v>
+      </c>
+      <c r="M89" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" t="s">
+        <v>291</v>
+      </c>
+      <c r="I90" t="s">
+        <v>380</v>
+      </c>
+      <c r="J90" t="s">
+        <v>380</v>
+      </c>
+      <c r="K90" t="s">
+        <v>489</v>
+      </c>
+      <c r="L90" t="s">
+        <v>509</v>
+      </c>
+      <c r="M90" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" t="s">
+        <v>199</v>
+      </c>
+      <c r="G91" t="s">
+        <v>292</v>
+      </c>
+      <c r="I91" t="s">
+        <v>383</v>
+      </c>
+      <c r="J91" t="s">
+        <v>384</v>
+      </c>
+      <c r="K91" t="s">
+        <v>490</v>
+      </c>
+      <c r="L91" t="s">
+        <v>509</v>
+      </c>
+      <c r="M91" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>193</v>
+      </c>
+      <c r="G92" t="s">
+        <v>293</v>
+      </c>
+      <c r="I92" t="s">
+        <v>380</v>
+      </c>
+      <c r="J92" t="s">
+        <v>380</v>
+      </c>
+      <c r="K92" t="s">
+        <v>491</v>
+      </c>
+      <c r="L92" t="s">
+        <v>509</v>
+      </c>
+      <c r="M92" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" t="s">
+        <v>294</v>
+      </c>
+      <c r="I93" t="s">
+        <v>380</v>
+      </c>
+      <c r="J93" t="s">
+        <v>380</v>
+      </c>
+      <c r="K93" t="s">
+        <v>491</v>
+      </c>
+      <c r="L93" t="s">
+        <v>509</v>
+      </c>
+      <c r="M93" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" t="s">
+        <v>193</v>
+      </c>
+      <c r="F94" t="s">
+        <v>202</v>
+      </c>
+      <c r="G94" t="s">
+        <v>295</v>
+      </c>
+      <c r="H94" t="s">
+        <v>374</v>
+      </c>
+      <c r="I94" t="s">
+        <v>390</v>
+      </c>
+      <c r="J94" t="s">
+        <v>396</v>
+      </c>
+      <c r="K94" t="s">
+        <v>492</v>
+      </c>
+      <c r="L94" t="s">
+        <v>509</v>
+      </c>
+      <c r="M94" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" t="s">
+        <v>296</v>
+      </c>
+      <c r="I95" t="s">
+        <v>379</v>
+      </c>
+      <c r="J95" t="s">
+        <v>385</v>
+      </c>
+      <c r="K95" t="s">
+        <v>493</v>
+      </c>
+      <c r="L95" t="s">
+        <v>509</v>
+      </c>
+      <c r="M95" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" t="s">
+        <v>193</v>
+      </c>
+      <c r="F96" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96" t="s">
+        <v>297</v>
+      </c>
+      <c r="H96" t="s">
+        <v>375</v>
+      </c>
+      <c r="I96" t="s">
+        <v>394</v>
+      </c>
+      <c r="J96" t="s">
+        <v>404</v>
+      </c>
+      <c r="K96" t="s">
+        <v>494</v>
+      </c>
+      <c r="L96" t="s">
+        <v>509</v>
+      </c>
+      <c r="M96" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" t="s">
+        <v>298</v>
+      </c>
+      <c r="I97" t="s">
+        <v>380</v>
+      </c>
+      <c r="J97" t="s">
+        <v>380</v>
+      </c>
+      <c r="K97" t="s">
+        <v>495</v>
+      </c>
+      <c r="L97" t="s">
+        <v>509</v>
+      </c>
+      <c r="M97" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="s">
+        <v>200</v>
+      </c>
+      <c r="G98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I98" t="s">
+        <v>395</v>
+      </c>
+      <c r="J98" t="s">
+        <v>394</v>
+      </c>
+      <c r="K98" t="s">
+        <v>496</v>
+      </c>
+      <c r="L98" t="s">
+        <v>509</v>
+      </c>
+      <c r="M98" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" t="s">
+        <v>201</v>
+      </c>
+      <c r="G99" t="s">
+        <v>300</v>
+      </c>
+      <c r="I99" t="s">
+        <v>390</v>
+      </c>
+      <c r="J99" t="s">
+        <v>393</v>
+      </c>
+      <c r="K99" t="s">
+        <v>497</v>
+      </c>
+      <c r="L99" t="s">
+        <v>509</v>
+      </c>
+      <c r="M99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="G100" t="s">
+        <v>301</v>
+      </c>
+      <c r="I100" t="s">
+        <v>383</v>
+      </c>
+      <c r="J100" t="s">
+        <v>387</v>
+      </c>
+      <c r="K100" t="s">
+        <v>498</v>
+      </c>
+      <c r="L100" t="s">
+        <v>512</v>
+      </c>
+      <c r="M100" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="G101" t="s">
+        <v>302</v>
+      </c>
+      <c r="I101" t="s">
+        <v>390</v>
+      </c>
+      <c r="J101" t="s">
+        <v>379</v>
+      </c>
+      <c r="K101" t="s">
+        <v>499</v>
+      </c>
+      <c r="L101" t="s">
+        <v>509</v>
+      </c>
+      <c r="M101" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" t="s">
+        <v>193</v>
+      </c>
+      <c r="G102" t="s">
+        <v>303</v>
+      </c>
+      <c r="I102" t="s">
+        <v>380</v>
+      </c>
+      <c r="J102" t="s">
+        <v>380</v>
+      </c>
+      <c r="K102" t="s">
+        <v>500</v>
+      </c>
+      <c r="L102" t="s">
+        <v>512</v>
+      </c>
+      <c r="M102" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" t="s">
+        <v>304</v>
+      </c>
+      <c r="I103" t="s">
+        <v>380</v>
+      </c>
+      <c r="J103" t="s">
+        <v>380</v>
+      </c>
+      <c r="K103" t="s">
+        <v>501</v>
+      </c>
+      <c r="L103" t="s">
+        <v>524</v>
+      </c>
+      <c r="M103" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>191</v>
+      </c>
+      <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="G104" t="s">
+        <v>305</v>
+      </c>
+      <c r="I104" t="s">
+        <v>380</v>
+      </c>
+      <c r="J104" t="s">
+        <v>380</v>
+      </c>
+      <c r="K104" t="s">
+        <v>502</v>
+      </c>
+      <c r="L104" t="s">
+        <v>509</v>
+      </c>
+      <c r="M104" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="G105" t="s">
+        <v>306</v>
+      </c>
+      <c r="I105" t="s">
+        <v>380</v>
+      </c>
+      <c r="J105" t="s">
+        <v>380</v>
+      </c>
+      <c r="K105" t="s">
+        <v>503</v>
+      </c>
+      <c r="L105" t="s">
+        <v>509</v>
+      </c>
+      <c r="M105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" t="s">
+        <v>191</v>
+      </c>
+      <c r="E106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" t="s">
+        <v>307</v>
+      </c>
+      <c r="I106" t="s">
+        <v>380</v>
+      </c>
+      <c r="J106" t="s">
+        <v>380</v>
+      </c>
+      <c r="K106" t="s">
+        <v>504</v>
+      </c>
+      <c r="L106" t="s">
+        <v>509</v>
+      </c>
+      <c r="M106" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" t="s">
+        <v>195</v>
+      </c>
+      <c r="G107" t="s">
+        <v>308</v>
+      </c>
+      <c r="I107" t="s">
+        <v>383</v>
+      </c>
+      <c r="J107" t="s">
+        <v>393</v>
+      </c>
+      <c r="K107" t="s">
+        <v>505</v>
+      </c>
+      <c r="L107" t="s">
+        <v>509</v>
+      </c>
+      <c r="M107" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" t="s">
+        <v>193</v>
+      </c>
+      <c r="G108" t="s">
+        <v>309</v>
+      </c>
+      <c r="I108" t="s">
+        <v>380</v>
+      </c>
+      <c r="J108" t="s">
+        <v>380</v>
+      </c>
+      <c r="K108" t="s">
+        <v>506</v>
+      </c>
+      <c r="L108" t="s">
+        <v>509</v>
+      </c>
+      <c r="M108" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" t="s">
+        <v>193</v>
+      </c>
+      <c r="G109" t="s">
+        <v>310</v>
+      </c>
+      <c r="I109" t="s">
+        <v>380</v>
+      </c>
+      <c r="J109" t="s">
+        <v>380</v>
+      </c>
+      <c r="K109" t="s">
+        <v>506</v>
+      </c>
+      <c r="L109" t="s">
+        <v>509</v>
+      </c>
+      <c r="M109" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" t="s">
+        <v>193</v>
+      </c>
+      <c r="G110" t="s">
+        <v>311</v>
+      </c>
+      <c r="I110" t="s">
+        <v>380</v>
+      </c>
+      <c r="J110" t="s">
+        <v>380</v>
+      </c>
+      <c r="K110" t="s">
+        <v>506</v>
+      </c>
+      <c r="L110" t="s">
+        <v>509</v>
+      </c>
+      <c r="M110" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G111" t="s">
+        <v>312</v>
+      </c>
+      <c r="I111" t="s">
+        <v>383</v>
+      </c>
+      <c r="J111" t="s">
+        <v>403</v>
+      </c>
+      <c r="K111" t="s">
+        <v>507</v>
+      </c>
+      <c r="L111" t="s">
+        <v>509</v>
+      </c>
+      <c r="M111" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112" t="s">
+        <v>194</v>
+      </c>
+      <c r="F112" t="s">
+        <v>202</v>
+      </c>
+      <c r="G112" t="s">
+        <v>313</v>
+      </c>
+      <c r="H112" t="s">
+        <v>376</v>
+      </c>
+      <c r="I112" t="s">
+        <v>380</v>
+      </c>
+      <c r="J112" t="s">
+        <v>380</v>
+      </c>
+      <c r="K112" t="s">
+        <v>194</v>
+      </c>
+      <c r="L112" t="s">
+        <v>509</v>
+      </c>
+      <c r="M112" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" t="s">
+        <v>193</v>
+      </c>
+      <c r="F113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G113" t="s">
+        <v>314</v>
+      </c>
+      <c r="H113" t="s">
+        <v>377</v>
+      </c>
+      <c r="I113" t="s">
+        <v>380</v>
+      </c>
+      <c r="J113" t="s">
+        <v>380</v>
+      </c>
+      <c r="K113" t="s">
+        <v>506</v>
+      </c>
+      <c r="L113" t="s">
+        <v>509</v>
+      </c>
+      <c r="M113" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" t="s">
+        <v>315</v>
+      </c>
+      <c r="I114" t="s">
+        <v>380</v>
+      </c>
+      <c r="J114" t="s">
+        <v>380</v>
+      </c>
+      <c r="K114" t="s">
+        <v>194</v>
+      </c>
+      <c r="L114" t="s">
+        <v>509</v>
+      </c>
+      <c r="M114" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" t="s">
+        <v>191</v>
+      </c>
+      <c r="E115" t="s">
+        <v>193</v>
+      </c>
+      <c r="G115" t="s">
+        <v>316</v>
+      </c>
+      <c r="I115" t="s">
+        <v>380</v>
+      </c>
+      <c r="J115" t="s">
+        <v>380</v>
+      </c>
+      <c r="K115" t="s">
+        <v>506</v>
+      </c>
+      <c r="L115" t="s">
+        <v>509</v>
+      </c>
+      <c r="M115" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" t="s">
+        <v>191</v>
+      </c>
+      <c r="E116" t="s">
+        <v>193</v>
+      </c>
+      <c r="G116" t="s">
+        <v>317</v>
+      </c>
+      <c r="I116" t="s">
+        <v>380</v>
+      </c>
+      <c r="J116" t="s">
+        <v>380</v>
+      </c>
+      <c r="K116" t="s">
+        <v>506</v>
+      </c>
+      <c r="L116" t="s">
+        <v>509</v>
+      </c>
+      <c r="M116" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" t="s">
+        <v>191</v>
+      </c>
+      <c r="E117" t="s">
+        <v>195</v>
+      </c>
+      <c r="G117" t="s">
+        <v>318</v>
+      </c>
+      <c r="I117" t="s">
+        <v>380</v>
+      </c>
+      <c r="J117" t="s">
+        <v>380</v>
+      </c>
+      <c r="K117" t="s">
+        <v>508</v>
+      </c>
+      <c r="L117" t="s">
+        <v>509</v>
+      </c>
+      <c r="M117" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" t="s">
+        <v>191</v>
+      </c>
+      <c r="E118" t="s">
+        <v>193</v>
+      </c>
+      <c r="G118" t="s">
+        <v>319</v>
+      </c>
+      <c r="I118" t="s">
+        <v>380</v>
+      </c>
+      <c r="J118" t="s">
+        <v>380</v>
+      </c>
+      <c r="K118" t="s">
+        <v>506</v>
+      </c>
+      <c r="L118" t="s">
+        <v>509</v>
+      </c>
+      <c r="M118" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" t="s">
+        <v>191</v>
+      </c>
+      <c r="E119" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" t="s">
+        <v>320</v>
+      </c>
+      <c r="I119" t="s">
+        <v>380</v>
+      </c>
+      <c r="J119" t="s">
+        <v>380</v>
+      </c>
+      <c r="K119" t="s">
+        <v>194</v>
+      </c>
+      <c r="L119" t="s">
+        <v>509</v>
+      </c>
+      <c r="M119" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" t="s">
+        <v>191</v>
+      </c>
+      <c r="E120" t="s">
+        <v>193</v>
+      </c>
+      <c r="G120" t="s">
+        <v>321</v>
+      </c>
+      <c r="I120" t="s">
+        <v>380</v>
+      </c>
+      <c r="J120" t="s">
+        <v>380</v>
+      </c>
+      <c r="K120" t="s">
+        <v>506</v>
+      </c>
+      <c r="L120" t="s">
+        <v>509</v>
+      </c>
+      <c r="M120" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" t="s">
+        <v>191</v>
+      </c>
+      <c r="E121" t="s">
+        <v>193</v>
+      </c>
+      <c r="G121" t="s">
+        <v>322</v>
+      </c>
+      <c r="I121" t="s">
+        <v>380</v>
+      </c>
+      <c r="J121" t="s">
+        <v>380</v>
+      </c>
+      <c r="K121" t="s">
+        <v>506</v>
+      </c>
+      <c r="L121" t="s">
+        <v>509</v>
+      </c>
+      <c r="M121" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" t="s">
+        <v>193</v>
+      </c>
+      <c r="G122" t="s">
+        <v>323</v>
+      </c>
+      <c r="I122" t="s">
+        <v>380</v>
+      </c>
+      <c r="J122" t="s">
+        <v>380</v>
+      </c>
+      <c r="K122" t="s">
+        <v>506</v>
+      </c>
+      <c r="L122" t="s">
+        <v>509</v>
+      </c>
+      <c r="M122" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" t="s">
+        <v>191</v>
+      </c>
+      <c r="E123" t="s">
+        <v>193</v>
+      </c>
+      <c r="G123" t="s">
+        <v>324</v>
+      </c>
+      <c r="I123" t="s">
+        <v>380</v>
+      </c>
+      <c r="J123" t="s">
+        <v>380</v>
+      </c>
+      <c r="K123" t="s">
+        <v>506</v>
+      </c>
+      <c r="L123" t="s">
+        <v>509</v>
+      </c>
+      <c r="M123" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" t="s">
+        <v>144</v>
+      </c>
+      <c r="D124" t="s">
+        <v>191</v>
+      </c>
+      <c r="E124" t="s">
+        <v>193</v>
+      </c>
+      <c r="G124" t="s">
+        <v>325</v>
+      </c>
+      <c r="I124" t="s">
+        <v>380</v>
+      </c>
+      <c r="J124" t="s">
+        <v>380</v>
+      </c>
+      <c r="K124" t="s">
+        <v>506</v>
+      </c>
+      <c r="L124" t="s">
+        <v>509</v>
+      </c>
+      <c r="M124" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D125" t="s">
+        <v>191</v>
+      </c>
+      <c r="E125" t="s">
+        <v>195</v>
+      </c>
+      <c r="G125" t="s">
+        <v>326</v>
+      </c>
+      <c r="I125" t="s">
+        <v>380</v>
+      </c>
+      <c r="J125" t="s">
+        <v>380</v>
+      </c>
+      <c r="K125" t="s">
+        <v>508</v>
+      </c>
+      <c r="L125" t="s">
+        <v>509</v>
+      </c>
+      <c r="M125" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" t="s">
+        <v>191</v>
+      </c>
+      <c r="E126" t="s">
+        <v>193</v>
+      </c>
+      <c r="G126" t="s">
+        <v>327</v>
+      </c>
+      <c r="I126" t="s">
+        <v>380</v>
+      </c>
+      <c r="J126" t="s">
+        <v>380</v>
+      </c>
+      <c r="K126" t="s">
+        <v>506</v>
+      </c>
+      <c r="L126" t="s">
+        <v>509</v>
+      </c>
+      <c r="M126" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D127" t="s">
+        <v>191</v>
+      </c>
+      <c r="E127" t="s">
+        <v>193</v>
+      </c>
+      <c r="G127" t="s">
+        <v>328</v>
+      </c>
+      <c r="I127" t="s">
+        <v>380</v>
+      </c>
+      <c r="J127" t="s">
+        <v>380</v>
+      </c>
+      <c r="K127" t="s">
+        <v>506</v>
+      </c>
+      <c r="L127" t="s">
+        <v>509</v>
+      </c>
+      <c r="M127" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D128" t="s">
+        <v>191</v>
+      </c>
+      <c r="E128" t="s">
+        <v>193</v>
+      </c>
+      <c r="G128" t="s">
+        <v>329</v>
+      </c>
+      <c r="I128" t="s">
+        <v>380</v>
+      </c>
+      <c r="J128" t="s">
+        <v>380</v>
+      </c>
+      <c r="K128" t="s">
+        <v>506</v>
+      </c>
+      <c r="L128" t="s">
+        <v>509</v>
+      </c>
+      <c r="M128" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" t="s">
+        <v>191</v>
+      </c>
+      <c r="E129" t="s">
+        <v>193</v>
+      </c>
+      <c r="G129" t="s">
+        <v>330</v>
+      </c>
+      <c r="I129" t="s">
+        <v>380</v>
+      </c>
+      <c r="J129" t="s">
+        <v>380</v>
+      </c>
+      <c r="K129" t="s">
+        <v>506</v>
+      </c>
+      <c r="L129" t="s">
+        <v>509</v>
+      </c>
+      <c r="M129" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" t="s">
+        <v>144</v>
+      </c>
+      <c r="D130" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" t="s">
+        <v>193</v>
+      </c>
+      <c r="G130" t="s">
+        <v>331</v>
+      </c>
+      <c r="I130" t="s">
+        <v>380</v>
+      </c>
+      <c r="J130" t="s">
+        <v>380</v>
+      </c>
+      <c r="K130" t="s">
+        <v>506</v>
+      </c>
+      <c r="L130" t="s">
+        <v>509</v>
+      </c>
+      <c r="M130" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" t="s">
+        <v>191</v>
+      </c>
+      <c r="E131" t="s">
+        <v>193</v>
+      </c>
+      <c r="G131" t="s">
+        <v>332</v>
+      </c>
+      <c r="I131" t="s">
+        <v>380</v>
+      </c>
+      <c r="J131" t="s">
+        <v>380</v>
+      </c>
+      <c r="K131" t="s">
+        <v>506</v>
+      </c>
+      <c r="L131" t="s">
+        <v>509</v>
+      </c>
+      <c r="M131" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" t="s">
+        <v>193</v>
+      </c>
+      <c r="G132" t="s">
+        <v>333</v>
+      </c>
+      <c r="I132" t="s">
+        <v>380</v>
+      </c>
+      <c r="J132" t="s">
+        <v>380</v>
+      </c>
+      <c r="K132" t="s">
+        <v>506</v>
+      </c>
+      <c r="L132" t="s">
+        <v>509</v>
+      </c>
+      <c r="M132" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" t="s">
+        <v>191</v>
+      </c>
+      <c r="E133" t="s">
+        <v>193</v>
+      </c>
+      <c r="G133" t="s">
+        <v>334</v>
+      </c>
+      <c r="I133" t="s">
+        <v>380</v>
+      </c>
+      <c r="J133" t="s">
+        <v>380</v>
+      </c>
+      <c r="K133" t="s">
+        <v>506</v>
+      </c>
+      <c r="L133" t="s">
+        <v>509</v>
+      </c>
+      <c r="M133" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
